--- a/sample-data.xlsx
+++ b/sample-data.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttontoey/Documents/db-sys-bookbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4D998-B756-8247-9E51-72B3A76A44C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F474D89-E6B6-F541-B062-764D7FBB5F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
   </bookViews>
   <sheets>
-    <sheet name="buyer" sheetId="1" r:id="rId1"/>
-    <sheet name="buyercontact" sheetId="2" r:id="rId2"/>
-    <sheet name="interestedgenre" sheetId="3" r:id="rId3"/>
-    <sheet name="markedbook" sheetId="4" r:id="rId4"/>
-    <sheet name="seller" sheetId="5" r:id="rId5"/>
-    <sheet name="sellercontact" sheetId="6" r:id="rId6"/>
-    <sheet name="admin" sheetId="7" r:id="rId7"/>
-    <sheet name="admincontact" sheetId="8" r:id="rId8"/>
+    <sheet name="userinformation" sheetId="21" r:id="rId1"/>
+    <sheet name="buyer" sheetId="1" r:id="rId2"/>
+    <sheet name="buyercontact" sheetId="2" r:id="rId3"/>
+    <sheet name="interestedgenre" sheetId="3" r:id="rId4"/>
+    <sheet name="markedbook" sheetId="4" r:id="rId5"/>
+    <sheet name="seller" sheetId="5" r:id="rId6"/>
+    <sheet name="sellercontact" sheetId="6" r:id="rId7"/>
+    <sheet name="admin" sheetId="7" r:id="rId8"/>
+    <sheet name="admincontact" sheetId="8" r:id="rId9"/>
+    <sheet name="bookinformation" sheetId="22" r:id="rId10"/>
+    <sheet name="book" sheetId="9" r:id="rId11"/>
+    <sheet name="bookgenre" sheetId="10" r:id="rId12"/>
+    <sheet name="booktag" sheetId="11" r:id="rId13"/>
+    <sheet name="sellpost" sheetId="12" r:id="rId14"/>
+    <sheet name="specialdescription" sheetId="13" r:id="rId15"/>
+    <sheet name="damage" sheetId="14" r:id="rId16"/>
+    <sheet name="transaction" sheetId="15" r:id="rId17"/>
+    <sheet name="evidence" sheetId="16" r:id="rId18"/>
+    <sheet name="payment" sheetId="17" r:id="rId19"/>
+    <sheet name="shipment" sheetId="18" r:id="rId20"/>
+    <sheet name="searchhistory" sheetId="19" r:id="rId21"/>
+    <sheet name="message" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="329">
   <si>
     <t>userId</t>
   </si>
@@ -283,12 +297,6 @@
     <t>2022-07-29 20:00:00</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -430,9 +438,6 @@
     <t>2003-02-28</t>
   </si>
   <si>
-    <t>2003-02-29</t>
-  </si>
-  <si>
     <t>1112223334445</t>
   </si>
   <si>
@@ -548,13 +553,502 @@
   </si>
   <si>
     <t>somying_bookbook</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>bookPhotoURL</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>approvedOn</t>
+  </si>
+  <si>
+    <t>rejectedOn</t>
+  </si>
+  <si>
+    <t>isApproved</t>
+  </si>
+  <si>
+    <t>approvedBy</t>
+  </si>
+  <si>
+    <t>addedBy</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>postId</t>
+  </si>
+  <si>
+    <t>createdOn</t>
+  </si>
+  <si>
+    <t>deletedOn</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>postOwner</t>
+  </si>
+  <si>
+    <t>listedBook</t>
+  </si>
+  <si>
+    <t>specialDescription</t>
+  </si>
+  <si>
+    <t>damagePictureURL</t>
+  </si>
+  <si>
+    <t>The Spooky Town</t>
+  </si>
+  <si>
+    <t>ไม่ยากถ้าอยากพูดความจริง</t>
+  </si>
+  <si>
+    <t>กล้ามขึ้นอย่างไรใน 60 วัน</t>
+  </si>
+  <si>
+    <t>Z-Virus</t>
+  </si>
+  <si>
+    <t>Jim Simons: The King of Quant</t>
+  </si>
+  <si>
+    <t>ภารกิจปล้นจักรวาล</t>
+  </si>
+  <si>
+    <t>ไพ่ยิบซีเบื้องต้น</t>
+  </si>
+  <si>
+    <t>Algorithm Design</t>
+  </si>
+  <si>
+    <t>B.K. Rowling</t>
+  </si>
+  <si>
+    <t>จรัสฤดี</t>
+  </si>
+  <si>
+    <t>เทรนเนอร์สุชาติ</t>
+  </si>
+  <si>
+    <t>สำนักพิมพ์ Get Rich</t>
+  </si>
+  <si>
+    <t>หมอดูจักรกฤษณ์</t>
+  </si>
+  <si>
+    <t>รศ.ดร.สมศักดิ์ รักอัลกอ และคณะ</t>
+  </si>
+  <si>
+    <t>ชีวประวัติของ Jim Simons ผู้บุกเบิกวงการ Quantitative Finance</t>
+  </si>
+  <si>
+    <t>ธีระกับแผนการของเขาที่จะยึดครองดาวเคราะห์ซัฟไฟน์ เหมืองแร่ที่ใหญ่ที่สุดของจักรวรรดิ์เดซาร์</t>
+  </si>
+  <si>
+    <t>เรียนรู้การดูไพ่ยิบซีจากพื้นฐานสู่มืออาชีพผ่านหนังสือเล่มนี้</t>
+  </si>
+  <si>
+    <t>หนังสือง่าย ๆ เกี่ยวกับอัลกอริทึม มันง่าย ๆ ง่ายจริง ๆ</t>
+  </si>
+  <si>
+    <t>A new global pandemic has occurred. Margaret and her research team have a mission to find the cure, while, the corrupt government has another plan in mind.</t>
+  </si>
+  <si>
+    <t>ออกกำลังกายกี่ครั้งก็ไม่เห็นผล? อยากลดน้ำหนักแบบโนโยโย่? หนังสือเล่มนี้คือคำตอบของคุณ !</t>
+  </si>
+  <si>
+    <t>เคยหรือไม่พูดอะไรก็ไม่มีใครเชื่อ ลองอ่านหนังสือเล่มนี้เพื่อปรับบุคลิก</t>
+  </si>
+  <si>
+    <t>Courseville, a town in the northern part of Algoland, is now haunted with undeads. Can Fred and his colleagues survive this?</t>
+  </si>
+  <si>
+    <t>9783161484100</t>
+  </si>
+  <si>
+    <t>9783161484101</t>
+  </si>
+  <si>
+    <t>9783139393932</t>
+  </si>
+  <si>
+    <t>1783161483222</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>การออกแบบเว็บพนัน</t>
+  </si>
+  <si>
+    <t>เสี่ยต้นเตย</t>
+  </si>
+  <si>
+    <t>การออกแบบเว็บพนันให้ได้กำไรมากที่สุด พร้อมความน่าจะเป็นเบื้องต้นที่ใช้โกงผู้พนัน เผยเคล็ดลับเปิดยังไงไม่ให้โดนจับ !</t>
+  </si>
+  <si>
+    <t>2024-11-10 20:00:00</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Religious/Spiritual</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Self-Help</t>
+  </si>
+  <si>
+    <t>Health &amp; Wellness</t>
+  </si>
+  <si>
+    <t>Science Fiction</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>Non-Fiction</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Historical Fiction</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>True Crime</t>
+  </si>
+  <si>
+    <t>Bestseller</t>
+  </si>
+  <si>
+    <t>Must-Read</t>
+  </si>
+  <si>
+    <t>Inspirational</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>New Release</t>
+  </si>
+  <si>
+    <t>2024-11-10 21:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-10 22:30:00</t>
+  </si>
+  <si>
+    <t>2024-11-11 06:00:00</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>2024-11-10 19:30:00</t>
+  </si>
+  <si>
+    <t>2024-11-10 12:30:00</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Author Signature</t>
+  </si>
+  <si>
+    <t>Limited Edition</t>
+  </si>
+  <si>
+    <t>Special Cover Art</t>
+  </si>
+  <si>
+    <t>9229291484107</t>
+  </si>
+  <si>
+    <t>9783811484400</t>
+  </si>
+  <si>
+    <t>3363161484150</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>updatedOn</t>
+  </si>
+  <si>
+    <t>paymentId</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>failType</t>
+  </si>
+  <si>
+    <t>evidenceURL</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>isPaid</t>
+  </si>
+  <si>
+    <t>paidOn</t>
+  </si>
+  <si>
+    <t>hashId</t>
+  </si>
+  <si>
+    <t>trackingURL</t>
+  </si>
+  <si>
+    <t>isDelivered</t>
+  </si>
+  <si>
+    <t>searchText</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>sellerId</t>
+  </si>
+  <si>
+    <t>dateSent</t>
+  </si>
+  <si>
+    <t>dateRead</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>imageURL</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>2024-12-10 00:30:00</t>
+  </si>
+  <si>
+    <t>2024-12-10 08:40:00</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>2024-12-10 00:20:00</t>
+  </si>
+  <si>
+    <t>2024-12-10 00:10:00</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Bank Transfer</t>
+  </si>
+  <si>
+    <t>2024-12-10 00:25:00</t>
+  </si>
+  <si>
+    <t>cee6465f26714a5463a1bd4f8ba3ae0a</t>
+  </si>
+  <si>
+    <t>0867f6f0e226129850384624abd93bb7</t>
+  </si>
+  <si>
+    <t>900577f63adc1d1d4d6b9ad96f1244ae</t>
+  </si>
+  <si>
+    <t>Hamtaro</t>
+  </si>
+  <si>
+    <t>Doraemon</t>
+  </si>
+  <si>
+    <t>วิธีทำน้ำสับปะรด</t>
+  </si>
+  <si>
+    <t>งื้อออ</t>
+  </si>
+  <si>
+    <t>Database System อ.โปรดปราน</t>
+  </si>
+  <si>
+    <t>Death Note</t>
+  </si>
+  <si>
+    <t>เมล็ดทานตะวัน</t>
+  </si>
+  <si>
+    <t>ครอบครัวตึ๋งหนืด</t>
+  </si>
+  <si>
+    <t>งบการเงินเบื้องต้น</t>
+  </si>
+  <si>
+    <t>อายุน้อยร้อยล้าน</t>
+  </si>
+  <si>
+    <t>ภาษีธุรกิจ</t>
+  </si>
+  <si>
+    <t>ความรู้เบื้องต้นเกี่ยวกับกฎหมายทั่วไป</t>
+  </si>
+  <si>
+    <t>ประมวลกฎหมายแพ่ง</t>
+  </si>
+  <si>
+    <t>กฎหมายภาษที่ดิน</t>
+  </si>
+  <si>
+    <t>สอน Database SQL</t>
+  </si>
+  <si>
+    <t>เลี้ยงลูกอย่างไรให้ได้ A Database</t>
+  </si>
+  <si>
+    <t>NoSQL Database</t>
+  </si>
+  <si>
+    <t>2024-12-10 08:30:00</t>
+  </si>
+  <si>
+    <t>2024-12-10 08:32:00</t>
+  </si>
+  <si>
+    <t>ต่อยป่าว</t>
+  </si>
+  <si>
+    <t>สวัสดีวันจันทร์</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>2024-12-10 08:20:00</t>
+  </si>
+  <si>
+    <t>2024-12-10 08:20:14</t>
+  </si>
+  <si>
+    <t>ขอดูรูปเพิ่มเติม</t>
+  </si>
+  <si>
+    <t>2024-12-10 08:33:00</t>
+  </si>
+  <si>
+    <t>2024-12-10 08:36:00</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>buyerSent</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>2003-02-24</t>
+  </si>
+  <si>
+    <t>2003-02-02</t>
+  </si>
+  <si>
+    <t>Children's Literature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,6 +1069,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -598,11 +1098,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -917,465 +1419,2406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C9F2EC-0183-E341-A2EF-7211912858F0}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D67B75-98A3-3A42-9533-87172308BA2F}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AC5E7-7838-4C4A-AADA-CE7FB513F6A1}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B177C0-130C-ED49-AFE8-3D1705AB6953}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F3 F5:F8 F9" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C0B36-F6CB-2344-8815-DF17CEF01D95}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBDA5D7-CBF2-B743-A882-55FA5818C396}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BF8082-BFB1-0A44-AB0E-04E157F29C00}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F17CA1-5308-8949-B393-C02DFB0758CB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDDA3B7-7904-894C-B049-686320A0EAEA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="68" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35092F04-8AB1-5542-8E1E-C036E832A375}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1321F-EE90-4148-A6C8-C22E5449D41F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92718C27-8B02-8045-A2D7-FF1ABDC52011}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C9F2EC-0183-E341-A2EF-7211912858F0}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="D7" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D8" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="D9" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="D10" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L14" s="2"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2007F859-125F-AE43-9748-CF4D74F060E6}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{68C8E2D9-51E8-614D-9A4B-EBDB180CCC7E}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{D01AAE18-9E7D-DB4A-A95E-10939D6EF6A0}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{1CA3E7B7-B942-8A44-A85F-60AB7548C260}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{AA0FDCF0-7EA2-0D45-BFC1-5B4AD2C70190}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{E4B1648F-E8BE-1348-8CFE-8B1653149290}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{B917C4F6-736D-C94F-86D6-8EE61C10AF00}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{6049C25D-523A-0147-8C5E-0D08B04D31F6}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{ACA91FA3-B25B-A14E-ADA3-E932E36A72D4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2007F859-125F-AE43-9748-CF4D74F060E6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{68C8E2D9-51E8-614D-9A4B-EBDB180CCC7E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D01AAE18-9E7D-DB4A-A95E-10939D6EF6A0}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{1CA3E7B7-B942-8A44-A85F-60AB7548C260}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{AA0FDCF0-7EA2-0D45-BFC1-5B4AD2C70190}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{E4B1648F-E8BE-1348-8CFE-8B1653149290}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B917C4F6-736D-C94F-86D6-8EE61C10AF00}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{6049C25D-523A-0147-8C5E-0D08B04D31F6}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{ACA91FA3-B25B-A14E-ADA3-E932E36A72D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="H2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD335A9-7158-F04B-A211-9B5A45EC1C02}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E147E3A-BB3A-F34C-90FA-1985554C94F6}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C78963-1353-8046-9C2D-C8E136DEA44C}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9535460-767F-FD4B-9C97-194B218B8020}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1396,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1412,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,7 +3871,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1444,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1452,7 +3895,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1460,7 +3903,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1468,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1476,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1484,7 +3927,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1492,7 +3935,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1500,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1508,22 +3951,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE95BE8-3592-CB49-B38E-803BB742286B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1563,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1579,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1587,7 +4030,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1595,22 +4038,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27026C4-5368-7143-8601-D9B584B375FF}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,264 +4125,192 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C467EC5-7B90-7243-B4DD-E06C7A236BC3}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{9300D28F-C6FD-F74B-B0A6-33BB86BC8402}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{49ACC886-8A24-0943-A5EF-FD904B9E5036}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{E089A0F0-98BB-CE49-B0C2-723B7B59E931}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{98EB98D1-19A9-044A-A087-DFC297638440}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9300D28F-C6FD-F74B-B0A6-33BB86BC8402}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{49ACC886-8A24-0943-A5EF-FD904B9E5036}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E089A0F0-98BB-CE49-B0C2-723B7B59E931}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{98EB98D1-19A9-044A-A087-DFC297638440}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45597351-1F61-5A4E-A3EE-C66ACF6231A8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1957,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1965,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1973,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1981,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1989,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1997,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2005,7 +4376,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2013,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2021,7 +4392,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2029,167 +4400,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80183D-E34A-3A4C-9B08-3638B90BA9BA}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>161</v>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>162</v>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8EC986DB-2DFB-2F41-8ACA-44D51277B3F2}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{0EBF3DBC-C24E-4142-83F5-9E5A4F220754}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8EC986DB-2DFB-2F41-8ACA-44D51277B3F2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0EBF3DBC-C24E-4142-83F5-9E5A4F220754}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D7DFB3-DB35-5340-8950-A41BD5A906C1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2197,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2205,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/sample-data.xlsx
+++ b/sample-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttontoey/Documents/db-sys-bookbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F474D89-E6B6-F541-B062-764D7FBB5F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B5B6E9-5B28-3245-8427-87198D0D97D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="9" activeTab="21" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
   </bookViews>
   <sheets>
     <sheet name="userinformation" sheetId="21" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="332">
   <si>
     <t>userId</t>
   </si>
@@ -1023,9 +1023,6 @@
     <t>userName</t>
   </si>
   <si>
-    <t>buyerSent</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -1042,6 +1039,18 @@
   </si>
   <si>
     <t>Children's Literature</t>
+  </si>
+  <si>
+    <t>shipmentId</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>sender</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1591,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1622,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1642,7 +1651,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>125</v>
@@ -1665,7 +1674,7 @@
         <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1682,7 +1691,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>126</v>
@@ -1702,10 +1711,10 @@
         <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1792,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B177C0-130C-ED49-AFE8-3D1705AB6953}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1866,13 +1875,13 @@
         <v>208</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>81</v>
@@ -1881,7 +1890,7 @@
         <v>81</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1904,13 +1913,13 @@
         <v>209</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>81</v>
@@ -1939,16 +1948,16 @@
         <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>222</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>81</v>
@@ -1980,13 +1989,13 @@
         <v>211</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>81</v>
@@ -2018,13 +2027,13 @@
         <v>210</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>81</v>
@@ -2056,13 +2065,13 @@
         <v>256</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>222</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>82</v>
@@ -2094,13 +2103,13 @@
         <v>257</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>82</v>
@@ -2132,13 +2141,13 @@
         <v>258</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>222</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>82</v>
@@ -2167,13 +2176,13 @@
         <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>72</v>
@@ -2375,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2571,10 +2580,10 @@
         <v>241</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>244</v>
@@ -2594,10 +2603,10 @@
         <v>242</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>245</v>
@@ -2617,10 +2626,10 @@
         <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>246</v>
@@ -2640,10 +2649,10 @@
         <v>242</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>247</v>
@@ -2663,10 +2672,10 @@
         <v>248</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>250</v>
@@ -2686,10 +2695,10 @@
         <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>251</v>
@@ -2709,10 +2718,10 @@
         <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>252</v>
@@ -2863,7 +2872,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2924,10 +2933,10 @@
         <v>286</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2935,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>289</v>
@@ -2953,10 +2962,10 @@
         <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2964,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>281</v>
@@ -2982,10 +2991,10 @@
         <v>283</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2993,7 +3002,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>282</v>
@@ -3011,10 +3020,10 @@
         <v>283</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3093,10 +3102,10 @@
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>290</v>
@@ -3113,10 +3122,10 @@
         <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>291</v>
@@ -3133,10 +3142,10 @@
         <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>292</v>
@@ -3215,7 +3224,7 @@
         <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3241,7 +3250,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3267,7 +3276,7 @@
         <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3293,7 +3302,7 @@
         <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3319,7 +3328,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3339,13 +3348,13 @@
         <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3371,7 +3380,7 @@
         <v>77</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3397,7 +3406,7 @@
         <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3417,13 +3426,13 @@
         <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3448,28 +3457,31 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD335A9-7158-F04B-A211-9B5A45EC1C02}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s">
         <v>259</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>271</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>266</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3652,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C78963-1353-8046-9C2D-C8E136DEA44C}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3688,7 +3700,7 @@
         <v>280</v>
       </c>
       <c r="I1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3705,19 +3717,19 @@
         <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
         <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
         <v>312</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>324</v>
+      <c r="I2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3734,19 +3746,19 @@
         <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
         <v>314</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H3" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>324</v>
+      <c r="I3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3769,13 +3781,13 @@
         <v>314</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" t="s">
         <v>317</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>324</v>
+      <c r="I4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3803,8 +3815,8 @@
       <c r="H5" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>325</v>
+      <c r="I5" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4193,10 +4205,10 @@
         <v>144</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>81</v>
@@ -4225,10 +4237,10 @@
         <v>145</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>81</v>
@@ -4251,16 +4263,16 @@
         <v>141</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>81</v>
@@ -4292,7 +4304,7 @@
         <v>147</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>82</v>
@@ -4462,7 +4474,7 @@
         <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4488,7 +4500,7 @@
         <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
